--- a/OneTimeProgress/UploadFiles/Test.xlsx
+++ b/OneTimeProgress/UploadFiles/Test.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3BDA5D3-FA7C-46A9-A081-DDB4E5A79590}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A30D94EC-4692-481D-9903-6662E2FEEF52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
     <sheet name="Tasks" sheetId="2" r:id="rId2"/>
     <sheet name="Employees" sheetId="3" r:id="rId3"/>
+    <sheet name="Departments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
   <si>
     <t>equipmentName</t>
   </si>
@@ -114,9 +115,6 @@
     <t>CARGO LOADING</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Ramp</t>
   </si>
   <si>
@@ -144,9 +142,6 @@
     <t>HOLDS CLOSED</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>GATE CKIN</t>
   </si>
   <si>
@@ -253,6 +248,24 @@
   </si>
   <si>
     <t>Engineering</t>
+  </si>
+  <si>
+    <t>departmentName</t>
+  </si>
+  <si>
+    <t>superVisorName</t>
+  </si>
+  <si>
+    <t>sheduledStartTime</t>
+  </si>
+  <si>
+    <t>sheduledEndTime</t>
+  </si>
+  <si>
+    <t>sheduledDuration</t>
+  </si>
+  <si>
+    <t>statusOfDepartment</t>
   </si>
 </sst>
 </file>
@@ -328,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -342,6 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +639,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +860,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +868,7 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -915,7 +930,7 @@
         <v>0.44305555555555554</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G2" s="8">
         <v>0.4291666666666667</v>
@@ -927,10 +942,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="7">
         <v>42</v>
@@ -944,7 +959,7 @@
         <v>121</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7">
         <v>20</v>
@@ -956,7 +971,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G3" s="8">
         <v>0.43194444444444446</v>
@@ -968,10 +983,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L3" s="7">
         <v>38</v>
@@ -985,7 +1000,7 @@
         <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7">
         <v>8</v>
@@ -997,7 +1012,7 @@
         <v>0.44236111111111115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G4" s="8">
         <v>0.4368055555555555</v>
@@ -1009,10 +1024,10 @@
         <v>8</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L4" s="7">
         <v>31</v>
@@ -1026,7 +1041,7 @@
         <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7">
         <v>5</v>
@@ -1038,7 +1053,7 @@
         <v>0.44236111111111115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G5" s="8">
         <v>0.43888888888888888</v>
@@ -1050,10 +1065,10 @@
         <v>5</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L5" s="7">
         <v>28</v>
@@ -1067,7 +1082,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7">
         <v>17</v>
@@ -1079,7 +1094,7 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G6" s="8">
         <v>0.44305555555555554</v>
@@ -1091,10 +1106,10 @@
         <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L6" s="7">
         <v>22</v>
@@ -1108,7 +1123,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -1120,7 +1135,7 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G7" s="8">
         <v>0.4513888888888889</v>
@@ -1132,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L7" s="7">
         <v>10</v>
@@ -1149,7 +1164,7 @@
         <v>121</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -1161,7 +1176,7 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G8" s="8">
         <v>0.4513888888888889</v>
@@ -1173,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L8" s="7">
         <v>10</v>
@@ -1190,7 +1205,7 @@
         <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
@@ -1202,7 +1217,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G9" s="8">
         <v>0.4548611111111111</v>
@@ -1214,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L9" s="7">
         <v>5</v>
@@ -1231,7 +1246,7 @@
         <v>343</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7">
         <v>20</v>
@@ -1243,7 +1258,7 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G10" s="8">
         <v>0.44097222222222227</v>
@@ -1255,10 +1270,10 @@
         <v>20</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7">
         <v>40</v>
@@ -1272,7 +1287,7 @@
         <v>343</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
@@ -1284,7 +1299,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G11" s="8">
         <v>0.44444444444444442</v>
@@ -1296,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7">
         <v>35</v>
@@ -1313,7 +1328,7 @@
         <v>343</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1325,7 +1340,7 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G12" s="8">
         <v>0.4513888888888889</v>
@@ -1337,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7">
         <v>25</v>
@@ -1354,7 +1369,7 @@
         <v>343</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7">
         <v>10</v>
@@ -1366,7 +1381,7 @@
         <v>0.4597222222222222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G13" s="8">
         <v>0.45277777777777778</v>
@@ -1378,10 +1393,10 @@
         <v>10</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7">
         <v>23</v>
@@ -1395,7 +1410,7 @@
         <v>343</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -1407,7 +1422,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="8">
         <v>0.46180555555555558</v>
@@ -1419,10 +1434,10 @@
         <v>5</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7">
         <v>10</v>
@@ -1436,7 +1451,7 @@
         <v>343</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7">
         <v>5</v>
@@ -1448,7 +1463,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" s="8">
         <v>0.46180555555555558</v>
@@ -1460,10 +1475,10 @@
         <v>5</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7">
         <v>10</v>
@@ -1489,7 +1504,7 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G16" s="8">
         <v>0.43958333333333338</v>
@@ -1501,10 +1516,10 @@
         <v>20</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L16" s="7">
         <v>42</v>
@@ -1518,7 +1533,7 @@
         <v>343</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -1530,7 +1545,7 @@
         <v>0.45624999999999999</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G17" s="8">
         <v>0.44236111111111115</v>
@@ -1542,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7">
         <v>38</v>
@@ -1559,7 +1574,7 @@
         <v>343</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -1571,7 +1586,7 @@
         <v>0.45277777777777778</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G18" s="8">
         <v>0.44722222222222219</v>
@@ -1583,10 +1598,10 @@
         <v>8</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7">
         <v>31</v>
@@ -1600,7 +1615,7 @@
         <v>343</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>5</v>
@@ -1612,7 +1627,7 @@
         <v>0.45347222222222222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="8">
         <v>0.45</v>
@@ -1624,10 +1639,10 @@
         <v>5</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7">
         <v>28</v>
@@ -1641,7 +1656,7 @@
         <v>343</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7">
         <v>17</v>
@@ -1653,7 +1668,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="8">
         <v>0.45347222222222222</v>
@@ -1665,10 +1680,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L20" s="7">
         <v>22</v>
@@ -1682,7 +1697,7 @@
         <v>343</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7">
         <v>5</v>
@@ -1694,7 +1709,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="8">
         <v>0.46180555555555558</v>
@@ -1706,10 +1721,10 @@
         <v>5</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7">
         <v>10</v>
@@ -1723,7 +1738,7 @@
         <v>343</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -1735,7 +1750,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G22" s="8">
         <v>0.46180555555555558</v>
@@ -1747,10 +1762,10 @@
         <v>2</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L22" s="7">
         <v>10</v>
@@ -1764,7 +1779,7 @@
         <v>343</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7">
         <v>5</v>
@@ -1776,7 +1791,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G23" s="8">
         <v>0.46527777777777773</v>
@@ -1788,10 +1803,10 @@
         <v>5</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7">
         <v>5</v>
@@ -1809,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128AED64-1C0F-4D02-923B-A47E17B712D7}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,237 +1838,772 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A798F335-08B2-4AF4-A4C9-C93AFFDB4A47}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>121</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F2" s="5">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F3" s="5">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>121</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F4" s="5">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>121</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F5" s="5">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>121</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="D6" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F6" s="5">
+        <v>35</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>121</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F7" s="5">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>121</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>121</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F9" s="5">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>343</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F10" s="5">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>343</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F11" s="5">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>343</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F12" s="5">
+        <v>26</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>343</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F13" s="5">
+        <v>24</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>343</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F14" s="5">
+        <v>35</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>343</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F15" s="5">
+        <v>37</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>343</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F16" s="5">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>343</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F17" s="5">
+        <v>21</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OneTimeProgress/UploadFiles/Test.xlsx
+++ b/OneTimeProgress/UploadFiles/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A30D94EC-4692-481D-9903-6662E2FEEF52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35C81DE0-904F-41D1-B667-3A74CEA84E86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="82">
   <si>
     <t>equipmentName</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>statusOfDepartment</t>
+  </si>
+  <si>
+    <t>SheduledStart(d-)</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +863,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2083,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A1048576"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,6 +2096,7 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2123,7 +2127,9 @@
       <c r="I1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -2153,7 +2159,9 @@
       <c r="I2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="7">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2183,7 +2191,9 @@
       <c r="I3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="7">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -2213,7 +2223,9 @@
       <c r="I4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2243,7 +2255,9 @@
       <c r="I5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -2273,7 +2287,9 @@
       <c r="I6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="7">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2303,7 +2319,9 @@
       <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="7">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -2333,7 +2351,9 @@
       <c r="I8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="7">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -2363,7 +2383,9 @@
       <c r="I9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="7">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -2393,7 +2415,9 @@
       <c r="I10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="7">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -2423,7 +2447,9 @@
       <c r="I11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="7">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -2453,7 +2479,9 @@
       <c r="I12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="7">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -2483,7 +2511,9 @@
       <c r="I13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="7">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -2513,7 +2543,9 @@
       <c r="I14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="7">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -2543,7 +2575,9 @@
       <c r="I15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="7">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -2573,7 +2607,9 @@
       <c r="I16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="7">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -2603,9 +2639,12 @@
       <c r="I17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="7">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OneTimeProgress/UploadFiles/Test.xlsx
+++ b/OneTimeProgress/UploadFiles/Test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35C81DE0-904F-41D1-B667-3A74CEA84E86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{655C77F9-C021-40E0-A534-48CC89DA2E4C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -701,14 +701,20 @@
       <c r="G2" s="4">
         <v>0.40625</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
+        <v>-120</v>
+      </c>
+      <c r="I2">
+        <v>-75</v>
+      </c>
+      <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="M2" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -730,14 +736,20 @@
       <c r="G3" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="7">
+        <v>-42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>78</v>
       </c>
-      <c r="I3" s="3">
+      <c r="M3" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -759,14 +771,20 @@
       <c r="G4" s="4">
         <v>0.46875</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
+        <v>-27</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3">
         <v>93</v>
       </c>
-      <c r="I4" s="3">
+      <c r="M4" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -788,14 +806,20 @@
       <c r="G5" s="4">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3">
         <v>150</v>
       </c>
-      <c r="I5" s="3">
+      <c r="M5" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -817,14 +841,20 @@
       <c r="G6" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
+        <v>60</v>
+      </c>
+      <c r="I6" s="7">
+        <v>120</v>
+      </c>
+      <c r="L6" s="3">
         <v>180</v>
       </c>
-      <c r="I6" s="3">
+      <c r="M6" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -846,10 +876,16 @@
       <c r="G7" s="4">
         <v>0.63541666666666663</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
+        <v>225</v>
+      </c>
+      <c r="I7" s="7">
+        <v>255</v>
+      </c>
+      <c r="L7" s="3">
         <v>345</v>
       </c>
-      <c r="I7" s="3">
+      <c r="M7" s="3">
         <v>375</v>
       </c>
     </row>
@@ -2082,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A798F335-08B2-4AF4-A4C9-C93AFFDB4A47}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
